--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H2">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I2">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J2">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N2">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O2">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P2">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q2">
-        <v>28.94174345005</v>
+        <v>32.42989422540501</v>
       </c>
       <c r="R2">
-        <v>260.47569105045</v>
+        <v>291.869048028645</v>
       </c>
       <c r="S2">
-        <v>0.2102995255635038</v>
+        <v>0.1848965641410784</v>
       </c>
       <c r="T2">
-        <v>0.2102995255635038</v>
+        <v>0.1848965641410784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H3">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I3">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J3">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P3">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q3">
-        <v>3.035327899941666</v>
+        <v>3.089364461302333</v>
       </c>
       <c r="R3">
-        <v>27.317951099475</v>
+        <v>27.804280151721</v>
       </c>
       <c r="S3">
-        <v>0.02205561729164923</v>
+        <v>0.01761377543522411</v>
       </c>
       <c r="T3">
-        <v>0.02205561729164923</v>
+        <v>0.01761377543522411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.408675</v>
+        <v>1.433753</v>
       </c>
       <c r="H4">
-        <v>4.226025</v>
+        <v>4.301259</v>
       </c>
       <c r="I4">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="J4">
-        <v>0.2345535261744868</v>
+        <v>0.2048034833446371</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N4">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O4">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P4">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q4">
-        <v>0.3025448862166666</v>
+        <v>0.4022054719956666</v>
       </c>
       <c r="R4">
-        <v>2.72290397595</v>
+        <v>3.619849247961</v>
       </c>
       <c r="S4">
-        <v>0.002198383319333836</v>
+        <v>0.002293143768334654</v>
       </c>
       <c r="T4">
-        <v>0.002198383319333835</v>
+        <v>0.002293143768334654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H5">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I5">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J5">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N5">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O5">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P5">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q5">
-        <v>29.51063093767933</v>
+        <v>32.48895967376833</v>
       </c>
       <c r="R5">
-        <v>265.595678439114</v>
+        <v>292.400637063915</v>
       </c>
       <c r="S5">
-        <v>0.2144332353710674</v>
+        <v>0.1852333212820645</v>
       </c>
       <c r="T5">
-        <v>0.2144332353710673</v>
+        <v>0.1852333212820646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,13 +791,13 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H6">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I6">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J6">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +812,22 @@
         <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P6">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q6">
-        <v>3.094991204818554</v>
+        <v>3.094991204818555</v>
       </c>
       <c r="R6">
-        <v>27.85492084336699</v>
+        <v>27.854920843367</v>
       </c>
       <c r="S6">
-        <v>0.02248914904245115</v>
+        <v>0.01764585588347415</v>
       </c>
       <c r="T6">
-        <v>0.02248914904245115</v>
+        <v>0.01764585588347416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>1.436364333333333</v>
       </c>
       <c r="H7">
-        <v>4.309092999999999</v>
+        <v>4.309093</v>
       </c>
       <c r="I7">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="J7">
-        <v>0.2391639798069812</v>
+        <v>0.2051764974989863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N7">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O7">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P7">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q7">
-        <v>0.3084917981748888</v>
+        <v>0.4029380197607778</v>
       </c>
       <c r="R7">
-        <v>2.776426183573999</v>
+        <v>3.626442177847</v>
       </c>
       <c r="S7">
-        <v>0.002241595393462697</v>
+        <v>0.002297320333447597</v>
       </c>
       <c r="T7">
-        <v>0.002241595393462697</v>
+        <v>0.002297320333447598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H8">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I8">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J8">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N8">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O8">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P8">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q8">
-        <v>28.717757869918</v>
+        <v>46.28797237017834</v>
       </c>
       <c r="R8">
-        <v>258.459820829262</v>
+        <v>416.5917513316051</v>
       </c>
       <c r="S8">
-        <v>0.2086719780967756</v>
+        <v>0.2639073378660167</v>
       </c>
       <c r="T8">
-        <v>0.2086719780967756</v>
+        <v>0.2639073378660167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H9">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I9">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J9">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>6.464219</v>
       </c>
       <c r="O9">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P9">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q9">
-        <v>3.011836928095666</v>
+        <v>4.409524614303222</v>
       </c>
       <c r="R9">
-        <v>27.106532352861</v>
+        <v>39.685721528729</v>
       </c>
       <c r="S9">
-        <v>0.02188492473324253</v>
+        <v>0.02514056768157705</v>
       </c>
       <c r="T9">
-        <v>0.02188492473324253</v>
+        <v>0.02514056768157706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.397773</v>
+        <v>2.046430333333333</v>
       </c>
       <c r="H10">
-        <v>4.193319</v>
+        <v>6.139291</v>
       </c>
       <c r="I10">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="J10">
-        <v>0.2327382724485711</v>
+        <v>0.2923209651096064</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N10">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O10">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P10">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q10">
-        <v>0.3002034346046666</v>
+        <v>0.5740775978321111</v>
       </c>
       <c r="R10">
-        <v>2.701830911442</v>
+        <v>5.166698380489</v>
       </c>
       <c r="S10">
-        <v>0.002181369618553047</v>
+        <v>0.003273059562012663</v>
       </c>
       <c r="T10">
-        <v>0.002181369618553047</v>
+        <v>0.003273059562012664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H11">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I11">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J11">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N11">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O11">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P11">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q11">
-        <v>8.658632198584668</v>
+        <v>14.51387501720667</v>
       </c>
       <c r="R11">
-        <v>77.927689787262</v>
+        <v>130.62487515486</v>
       </c>
       <c r="S11">
-        <v>0.06291625957274828</v>
+        <v>0.08274974948738159</v>
       </c>
       <c r="T11">
-        <v>0.06291625957274827</v>
+        <v>0.0827497494873816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H12">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I12">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J12">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>6.464219</v>
       </c>
       <c r="O12">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P12">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q12">
-        <v>0.9080927668734443</v>
+        <v>1.382633238403111</v>
       </c>
       <c r="R12">
-        <v>8.172834901861</v>
+        <v>12.443699145628</v>
       </c>
       <c r="S12">
-        <v>0.006598478711924483</v>
+        <v>0.007882977769558082</v>
       </c>
       <c r="T12">
-        <v>0.006598478711924483</v>
+        <v>0.007882977769558083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4214396666666667</v>
+        <v>0.6416706666666666</v>
       </c>
       <c r="H13">
-        <v>1.264319</v>
+        <v>1.925012</v>
       </c>
       <c r="I13">
-        <v>0.07017243855855113</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="J13">
-        <v>0.07017243855855111</v>
+        <v>0.0916590149721806</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N13">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O13">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P13">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q13">
-        <v>0.0905137210491111</v>
+        <v>0.1800055193275555</v>
       </c>
       <c r="R13">
-        <v>0.8146234894419999</v>
+        <v>1.620049673948</v>
       </c>
       <c r="S13">
-        <v>0.0006577002738783694</v>
+        <v>0.001026287715240916</v>
       </c>
       <c r="T13">
-        <v>0.0006577002738783693</v>
+        <v>0.001026287715240916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H14">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I14">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J14">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N14">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O14">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P14">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q14">
-        <v>27.56201939632</v>
+        <v>32.62569837322167</v>
       </c>
       <c r="R14">
-        <v>248.05817456688</v>
+        <v>293.631285358995</v>
       </c>
       <c r="S14">
-        <v>0.2002740302297915</v>
+        <v>0.1860129265295659</v>
       </c>
       <c r="T14">
-        <v>0.2002740302297915</v>
+        <v>0.186012926529566</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H15">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I15">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J15">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>6.464219</v>
       </c>
       <c r="O15">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P15">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q15">
-        <v>2.890626357626667</v>
+        <v>3.108017324350111</v>
       </c>
       <c r="R15">
-        <v>26.01563721864</v>
+        <v>27.972155919151</v>
       </c>
       <c r="S15">
-        <v>0.02100417179909722</v>
+        <v>0.01772012330873109</v>
       </c>
       <c r="T15">
-        <v>0.02100417179909722</v>
+        <v>0.01772012330873109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.34152</v>
+        <v>1.442409666666667</v>
       </c>
       <c r="H16">
-        <v>4.02456</v>
+        <v>4.327229</v>
       </c>
       <c r="I16">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="J16">
-        <v>0.2233717830114097</v>
+        <v>0.2060400390745897</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N16">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O16">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P16">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q16">
-        <v>0.2881218277866666</v>
+        <v>0.4046338949545555</v>
       </c>
       <c r="R16">
-        <v>2.59309645008</v>
+        <v>3.641705054591</v>
       </c>
       <c r="S16">
-        <v>0.00209358098252097</v>
+        <v>0.002306989236292675</v>
       </c>
       <c r="T16">
-        <v>0.00209358098252097</v>
+        <v>0.002306989236292676</v>
       </c>
     </row>
   </sheetData>
